--- a/Excel/stoka.xlsx
+++ b/Excel/stoka.xlsx
@@ -401,6 +401,89 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -434,89 +517,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -531,19 +531,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowCount="1" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="6">
-    <tableColumn id="1" name="стока" totalsRowLabel="Общо" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="количество" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="ед. цена" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="стока" totalsRowLabel="Общо" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="количество" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="ед. цена" dataDxfId="9" totalsRowDxfId="3"/>
     <tableColumn id="4" name="ед. отстъпка" dataDxfId="8" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[количество]] &gt; 100, Table1[[#This Row],[ед. цена]] * 15/100, 0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="обща отстъпка" dataDxfId="7" totalsRowDxfId="1">
-      <calculatedColumnFormula>Table1[количество] * Table1[ед. отстъпка]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="обща сума" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
-      <calculatedColumnFormula>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Table1[обща сума])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -851,7 +851,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,11 +899,11 @@
         <v>0.12</v>
       </c>
       <c r="E2" s="2">
-        <f>Table1[количество] * Table1[ед. отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</f>
         <v>17.399999999999999</v>
       </c>
       <c r="F2" s="12">
-        <f>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</f>
         <v>98.6</v>
       </c>
     </row>
@@ -922,11 +922,11 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E3" s="2">
-        <f>Table1[количество] * Table1[ед. отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</f>
         <v>87.945000000000007</v>
       </c>
       <c r="F3" s="4">
-        <f>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</f>
         <v>498.35500000000008</v>
       </c>
     </row>
@@ -945,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f>Table1[количество] * Table1[ед. отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</f>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</f>
         <v>82.5</v>
       </c>
     </row>
@@ -968,11 +968,11 @@
         <v>0.27</v>
       </c>
       <c r="E5" s="2">
-        <f>Table1[количество] * Table1[ед. отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</f>
         <v>86.67</v>
       </c>
       <c r="F5" s="4">
-        <f>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</f>
         <v>491.13000000000005</v>
       </c>
     </row>
@@ -991,11 +991,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f>Table1[количество] * Table1[ед. отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <f>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</f>
         <v>99</v>
       </c>
     </row>
@@ -1014,11 +1014,11 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="E7" s="10">
-        <f>Table1[количество] * Table1[ед. отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. отстъпка]]</f>
         <v>76.589999999999989</v>
       </c>
       <c r="F7" s="11">
-        <f>Table1[количество] * Table1[ед. цена] - Table1[обща отстъпка]</f>
+        <f>Table1[[#This Row],[количество]] * Table1[[#This Row],[ед. цена]] - Table1[[#This Row],[обща отстъпка]]</f>
         <v>434.01</v>
       </c>
     </row>
